--- a/wfa-4313-class-roster.xlsx
+++ b/wfa-4313-class-roster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolvin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolvin\Documents\Teaching\WFA4313-Fisheries-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
   <si>
     <t>Amacker, Caleb Agustus</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,10 +568,10 @@
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.5546875" customWidth="1"/>
+    <col min="4" max="8" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43339</v>
       </c>
@@ -584,8 +587,11 @@
       <c r="G1" s="1">
         <v>43360</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H1" s="1">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -604,36 +610,36 @@
       <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>903608776</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
         <v>43195</v>
       </c>
-      <c r="P2" t="str">
-        <f>CONCATENATE(I2,"@msstate.edu;")</f>
+      <c r="Q2" t="str">
+        <f>CONCATENATE(J2,"@msstate.edu;")</f>
         <v>caa335@msstate.edu;</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -646,36 +652,36 @@
       <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>902651192</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
       <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
         <v>43196</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P25" si="0">CONCATENATE(I3,"@msstate.edu;")</f>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q25" si="0">CONCATENATE(J3,"@msstate.edu;")</f>
         <v>cb2912@msstate.edu;</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -691,36 +697,39 @@
       <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4">
         <v>902578510</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
       <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
         <v>43196</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="0"/>
         <v>sgb208@msstate.edu;</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -739,36 +748,36 @@
       <c r="G5" t="s">
         <v>66</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>903631195</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
         <v>43195</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="0"/>
         <v>eb1143@msstate.edu;</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -781,36 +790,36 @@
       <c r="G6" t="s">
         <v>66</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>902955485</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
       <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
         <v>43196</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="0"/>
         <v>mjd441@msstate.edu;</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -826,36 +835,39 @@
       <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7">
         <v>902381469</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
         <v>43194</v>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="0"/>
         <v>cng166@msstate.edu;</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -871,36 +883,39 @@
       <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8">
         <v>902940061</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
       <c r="K8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1">
         <v>43194</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="0"/>
         <v>lhh96@msstate.edu;</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -910,36 +925,36 @@
       <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>903772468</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
       <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1">
         <v>43196</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="0"/>
         <v>hcj64@msstate.edu;</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -958,36 +973,39 @@
       <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10">
         <v>902412064</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
         <v>43194</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="0"/>
         <v>jk1483@msstate.edu;</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1003,36 +1021,39 @@
       <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11">
         <v>903117583</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
       <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
         <v>7</v>
       </c>
-      <c r="L11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
         <v>43199</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="0"/>
         <v>ssl160@msstate.edu;</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1048,36 +1069,39 @@
       <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12">
         <v>904883443</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
       <c r="K12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
         <v>43194</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="0"/>
         <v>lcm320@msstate.edu;</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1093,36 +1117,39 @@
       <c r="G13" t="s">
         <v>53</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
         <v>904249055</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
       <c r="K13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
         <v>43186</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="0"/>
         <v>jm4954@msstate.edu;</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1138,36 +1165,39 @@
       <c r="G14" t="s">
         <v>53</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14">
         <v>904467189</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s">
-        <v>2</v>
-      </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
         <v>43193</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="0"/>
         <v>dan128@msstate.edu;</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1186,36 +1216,39 @@
       <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15">
         <v>904322356</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
-        <v>2</v>
-      </c>
       <c r="K15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
         <v>43199</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="0"/>
         <v>pdr105@msstate.edu;</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1228,36 +1261,36 @@
       <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>903994075</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
       <c r="K16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
         <v>43186</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="0"/>
         <v>csr249@msstate.edu;</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1273,36 +1306,39 @@
       <c r="G17" t="s">
         <v>67</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17">
         <v>904918110</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
       <c r="K17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
         <v>43194</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="0"/>
         <v>kls942@msstate.edu;</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1312,36 +1348,36 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>903297023</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>37</v>
       </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
       <c r="K18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
         <v>43311</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="0"/>
         <v>als1075@msstate.edu;</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1357,36 +1393,39 @@
       <c r="G19" t="s">
         <v>53</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19">
         <v>904030513</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>39</v>
       </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
       <c r="K19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1">
         <v>43194</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="0"/>
         <v>jcs963@msstate.edu;</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1399,36 +1438,39 @@
       <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20">
         <v>902696478</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>41</v>
       </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
       <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
         <v>7</v>
       </c>
-      <c r="L20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1">
         <v>43196</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="0"/>
         <v>ecs315@msstate.edu;</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1441,36 +1483,36 @@
       <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>903363509</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
       <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
         <v>7</v>
       </c>
-      <c r="L21" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="1">
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1">
         <v>43195</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="0"/>
         <v>drt179@msstate.edu;</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1489,36 +1531,36 @@
       <c r="G22" t="s">
         <v>53</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>902789945</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>45</v>
       </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
       <c r="K22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1">
         <v>43193</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="0"/>
         <v>kbt144@msstate.edu;</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1537,36 +1579,39 @@
       <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23">
         <v>904370866</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>47</v>
       </c>
-      <c r="J23" t="s">
-        <v>2</v>
-      </c>
       <c r="K23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1">
         <v>43263</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="0"/>
         <v>bnw162@msstate.edu;</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1582,36 +1627,39 @@
       <c r="G24" t="s">
         <v>53</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24">
         <v>902586210</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>49</v>
       </c>
-      <c r="J24" t="s">
-        <v>2</v>
-      </c>
       <c r="K24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
         <v>43195</v>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="0"/>
         <v>ekw127@msstate.edu;</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1627,31 +1675,34 @@
       <c r="G25" t="s">
         <v>53</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25">
         <v>913104563</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>51</v>
       </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
       <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
         <v>52</v>
       </c>
-      <c r="L25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="1">
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1">
         <v>43322</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="0"/>
         <v>dmn46@msstate.edu;</v>
       </c>

--- a/wfa-4313-class-roster.xlsx
+++ b/wfa-4313-class-roster.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="70">
   <si>
     <t>Amacker, Caleb Agustus</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,10 +571,10 @@
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5546875" customWidth="1"/>
+    <col min="4" max="9" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>43339</v>
       </c>
@@ -590,8 +593,11 @@
       <c r="H1" s="1">
         <v>43381</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I1" s="1">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -610,36 +616,39 @@
       <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2">
         <v>903608776</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
         <v>43195</v>
       </c>
-      <c r="Q2" t="str">
-        <f>CONCATENATE(J2,"@msstate.edu;")</f>
+      <c r="R2" t="str">
+        <f>CONCATENATE(K2,"@msstate.edu;")</f>
         <v>caa335@msstate.edu;</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -652,36 +661,39 @@
       <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3">
         <v>902651192</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
       <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
         <v>43196</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q25" si="0">CONCATENATE(J3,"@msstate.edu;")</f>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R25" si="0">CONCATENATE(K3,"@msstate.edu;")</f>
         <v>cb2912@msstate.edu;</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -700,36 +712,39 @@
       <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4">
         <v>902578510</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
       <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
         <v>7</v>
       </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
         <v>43196</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f t="shared" si="0"/>
         <v>sgb208@msstate.edu;</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -748,36 +763,39 @@
       <c r="G5" t="s">
         <v>66</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5">
         <v>903631195</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
         <v>43195</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f t="shared" si="0"/>
         <v>eb1143@msstate.edu;</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -790,36 +808,39 @@
       <c r="G6" t="s">
         <v>66</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6">
         <v>902955485</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
       <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
         <v>43196</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <f t="shared" si="0"/>
         <v>mjd441@msstate.edu;</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -838,36 +859,39 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7">
         <v>902381469</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
       <c r="L7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
         <v>43194</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="R7" t="str">
         <f t="shared" si="0"/>
         <v>cng166@msstate.edu;</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -886,36 +910,39 @@
       <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8">
         <v>902940061</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
-        <v>2</v>
-      </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
         <v>43194</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f t="shared" si="0"/>
         <v>lhh96@msstate.edu;</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -925,36 +952,39 @@
       <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9">
         <v>903772468</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
-        <v>2</v>
-      </c>
       <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
         <v>43196</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <f t="shared" si="0"/>
         <v>hcj64@msstate.edu;</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -976,36 +1006,39 @@
       <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10">
         <v>902412064</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
       <c r="L10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
         <v>43194</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="0"/>
         <v>jk1483@msstate.edu;</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1024,36 +1057,39 @@
       <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11">
         <v>903117583</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="s">
-        <v>2</v>
-      </c>
       <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
         <v>7</v>
       </c>
-      <c r="M11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
         <v>43199</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="0"/>
         <v>ssl160@msstate.edu;</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1072,36 +1108,39 @@
       <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12">
         <v>904883443</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1">
         <v>43194</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" t="str">
         <f t="shared" si="0"/>
         <v>lcm320@msstate.edu;</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1120,36 +1159,39 @@
       <c r="H13" t="s">
         <v>68</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13">
         <v>904249055</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
-        <v>2</v>
-      </c>
       <c r="L13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
         <v>43186</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13" t="str">
         <f t="shared" si="0"/>
         <v>jm4954@msstate.edu;</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1168,36 +1210,39 @@
       <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14">
         <v>904467189</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" t="s">
-        <v>2</v>
-      </c>
       <c r="L14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
         <v>43193</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" t="str">
         <f t="shared" si="0"/>
         <v>dan128@msstate.edu;</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1219,36 +1264,39 @@
       <c r="H15" t="s">
         <v>53</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15">
         <v>904322356</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
-      <c r="K15" t="s">
-        <v>2</v>
-      </c>
       <c r="L15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1">
         <v>43199</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" t="str">
         <f t="shared" si="0"/>
         <v>pdr105@msstate.edu;</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1261,36 +1309,39 @@
       <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16">
         <v>903994075</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>33</v>
       </c>
-      <c r="K16" t="s">
-        <v>2</v>
-      </c>
       <c r="L16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1">
         <v>43186</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="0"/>
         <v>csr249@msstate.edu;</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1309,36 +1360,39 @@
       <c r="H17" t="s">
         <v>67</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17">
         <v>904918110</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
-        <v>2</v>
-      </c>
       <c r="L17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
         <v>43194</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17" t="str">
         <f t="shared" si="0"/>
         <v>kls942@msstate.edu;</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1348,36 +1402,39 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18">
         <v>903297023</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>37</v>
       </c>
-      <c r="K18" t="s">
-        <v>2</v>
-      </c>
       <c r="L18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1">
         <v>43311</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="R18" t="str">
         <f t="shared" si="0"/>
         <v>als1075@msstate.edu;</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1396,36 +1453,39 @@
       <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19">
         <v>904030513</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>39</v>
       </c>
-      <c r="K19" t="s">
-        <v>2</v>
-      </c>
       <c r="L19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
         <v>43194</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="R19" t="str">
         <f t="shared" si="0"/>
         <v>jcs963@msstate.edu;</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1441,36 +1501,39 @@
       <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20">
         <v>902696478</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>41</v>
       </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
       <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
         <v>7</v>
       </c>
-      <c r="M20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1">
         <v>43196</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="R20" t="str">
         <f t="shared" si="0"/>
         <v>ecs315@msstate.edu;</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1483,36 +1546,39 @@
       <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21">
         <v>903363509</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>43</v>
       </c>
-      <c r="K21" t="s">
-        <v>2</v>
-      </c>
       <c r="L21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="1">
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1">
         <v>43195</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="R21" t="str">
         <f t="shared" si="0"/>
         <v>drt179@msstate.edu;</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1531,36 +1597,39 @@
       <c r="G22" t="s">
         <v>53</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22">
         <v>902789945</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>45</v>
       </c>
-      <c r="K22" t="s">
-        <v>2</v>
-      </c>
       <c r="L22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1">
         <v>43193</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="R22" t="str">
         <f t="shared" si="0"/>
         <v>kbt144@msstate.edu;</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1582,36 +1651,39 @@
       <c r="H23" t="s">
         <v>53</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23">
         <v>904370866</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>47</v>
       </c>
-      <c r="K23" t="s">
-        <v>2</v>
-      </c>
       <c r="L23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="1">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1">
         <v>43263</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="R23" t="str">
         <f t="shared" si="0"/>
         <v>bnw162@msstate.edu;</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1630,36 +1702,39 @@
       <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24">
         <v>902586210</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>49</v>
       </c>
-      <c r="K24" t="s">
-        <v>2</v>
-      </c>
       <c r="L24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1">
         <v>43195</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24" t="str">
         <f t="shared" si="0"/>
         <v>ekw127@msstate.edu;</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1678,31 +1753,34 @@
       <c r="H25" t="s">
         <v>53</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25">
         <v>913104563</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>51</v>
       </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
       <c r="L25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
         <v>52</v>
       </c>
-      <c r="M25" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
         <v>43322</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="0"/>
         <v>dmn46@msstate.edu;</v>
       </c>

--- a/wfa-4313-class-roster.xlsx
+++ b/wfa-4313-class-roster.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5256"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5256" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Lab-Roster" sheetId="2" r:id="rId2"/>
+    <sheet name="Grades" sheetId="3" r:id="rId2"/>
+    <sheet name="Lab-Roster" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="85">
   <si>
     <t>Amacker, Caleb Agustus</t>
   </si>
@@ -235,6 +236,51 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>9digit</t>
+  </si>
+  <si>
+    <t>netId</t>
+  </si>
+  <si>
+    <t>Lab 1</t>
+  </si>
+  <si>
+    <t>Lab 2</t>
+  </si>
+  <si>
+    <t>Lab 3</t>
+  </si>
+  <si>
+    <t>Lab 4</t>
+  </si>
+  <si>
+    <t>Lab 5</t>
+  </si>
+  <si>
+    <t>Lab 6</t>
+  </si>
+  <si>
+    <t>Exam 1</t>
+  </si>
+  <si>
+    <t>Exam 2</t>
+  </si>
+  <si>
+    <t>Exam 3</t>
+  </si>
+  <si>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Total possible points</t>
+  </si>
+  <si>
+    <t>Quiz 2</t>
   </si>
 </sst>
 </file>
@@ -562,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,6 +1837,344 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>903608776</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>902651192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>902578510</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>903631195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>902955485</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>902381469</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>902940061</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>903772468</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>902412064</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>903117583</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>904883443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>904249055</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>904467189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>904322356</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>903994075</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>904918110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>903297023</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>904030513</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>902696478</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>903363509</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>902789945</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>904370866</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>902586210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>913104563</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>

--- a/wfa-4313-class-roster.xlsx
+++ b/wfa-4313-class-roster.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Grades" sheetId="3" r:id="rId2"/>
     <sheet name="Lab-Roster" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="citation" localSheetId="1">Grades!$Q$3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="109">
   <si>
     <t>Amacker, Caleb Agustus</t>
   </si>
@@ -281,6 +284,78 @@
   </si>
   <si>
     <t>Quiz 2</t>
+  </si>
+  <si>
+    <t>Brief Submission</t>
+  </si>
+  <si>
+    <t>Late 2 hours</t>
+  </si>
+  <si>
+    <t>Towards a balanced presentation and objective interpretation of acoustic and trawl survey data, with specific reference to the eastern Scotian Shelf</t>
+  </si>
+  <si>
+    <t>The effects of fisheries management practises on freshwater ecosystems</t>
+  </si>
+  <si>
+    <t>Using reverse-time egg transport analysis for predicting Asian carp spawning grounds in the Illinois River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implications of piscine predator control on the federally listed fountain darter. </t>
+  </si>
+  <si>
+    <t>Management issues in the Lake Victoria watershed</t>
+  </si>
+  <si>
+    <t>Growth response of largemouth bass (Micropterus salmoides) to catch-and-release angling: a 27-year mark–recapture study</t>
+  </si>
+  <si>
+    <t>Tracking bowfin with acoustic telemetry: Insight into the ecology of a living fossil</t>
+  </si>
+  <si>
+    <t>Contrasting patterns of productivity and survival rates for stream-type chinook salmon (Oncorhynchus tshawytscha) populations of the Snake and Columbia rivers</t>
+  </si>
+  <si>
+    <t>Relatedness and body size influence territorial behaviour in Salmo salar juveniles in the wild.</t>
+  </si>
+  <si>
+    <t>Red Snapper Distribution on Natural Habitats and Artificial Structures in the Northern Gulf of Mexico</t>
+  </si>
+  <si>
+    <t>Temperature and hydrologic alteration predict the spread of invasive Largemouth Bass (Micropterus salmoides)</t>
+  </si>
+  <si>
+    <t>Predictive Evaluation of Size Restrictions as Management Strategies for Tennessee Reservoir Crappie Fisheries</t>
+  </si>
+  <si>
+    <t>Accounting for variable recruitment and fishing mortality in 1 length-based stock assessments for data-limited fisheries</t>
+  </si>
+  <si>
+    <t>GIS visualisation and analysis of mobile hydroacoustic fisheries data: a practical example</t>
+  </si>
+  <si>
+    <t>Public Perception of Agricultural Pollution and Gulf of Mexico Hypoxia</t>
+  </si>
+  <si>
+    <t>Assessing a social norms approach for improving recreational fisheries compliance</t>
+  </si>
+  <si>
+    <t>Effects of hot dry summers on the loss of Atlantic salmon, Salmo salar, from estuaries in South West England</t>
+  </si>
+  <si>
+    <t>Comparing commercial and recreational harvest characteristics of paddlefish Polyodon spathula (Walbaum, 1792) in the Middle Mississippi River</t>
+  </si>
+  <si>
+    <t>Effects of Multiple Low-Head Dams on Fish, Macroinvertebrates, Habitat, and Water Quality in the Fox River, Illinois</t>
+  </si>
+  <si>
+    <t>Effectively managing angler satisfaction in recreational fisheries requires understanding the fish species and the anglers</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Influence of behavior and mating success on brood-specific contribution to fish recruitment in ponds</t>
   </si>
 </sst>
 </file>
@@ -1838,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1925,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1893,8 +1968,11 @@
       <c r="O1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1904,8 +1982,14 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1915,8 +1999,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1926,8 +2016,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1937,8 +2033,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1948,8 +2047,14 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1959,8 +2064,14 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1970,8 +2081,14 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1981,8 +2098,14 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1992,8 +2115,14 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2003,8 +2132,14 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2014,8 +2149,14 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2025,8 +2166,14 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2036,8 +2183,14 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2047,8 +2200,14 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2058,8 +2217,14 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2070,7 +2235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2080,8 +2245,14 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2091,8 +2262,11 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2102,8 +2276,14 @@
       <c r="C20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2113,8 +2293,14 @@
       <c r="C21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2124,8 +2310,14 @@
       <c r="C22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2135,8 +2327,14 @@
       <c r="C23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2146,8 +2344,14 @@
       <c r="C24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2157,8 +2361,14 @@
       <c r="C25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2171,6 +2381,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2179,13 +2390,15 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/wfa-4313-class-roster.xlsx
+++ b/wfa-4313-class-roster.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5256" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5256" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Grades" sheetId="3" r:id="rId2"/>
-    <sheet name="Lab-Roster" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Lab-Roster" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="citation" localSheetId="1">Grades!$Q$3</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="110">
   <si>
     <t>Amacker, Caleb Agustus</t>
   </si>
@@ -356,6 +357,9 @@
   </si>
   <si>
     <t>Influence of behavior and mating success on brood-specific contribution to fish recruitment in ponds</t>
+  </si>
+  <si>
+    <t>rand</t>
   </si>
 </sst>
 </file>
@@ -1915,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2386,6 +2390,228 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>9.3585487870186945E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>4.1515733993713666E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.21772411016079318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>0.23480639091263478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.28729959371686165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.42020566728576614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>0.52567877919459505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.57817386168070106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.62942088517847605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>0.64641448498521614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.69767903396934849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.72784895853022025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.75035522032737256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.7673654849394187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.82368277287040881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0.82632263284302288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>0.83100117907501336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>0.88560508551387107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.912017914176944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.91359380066775664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.93430751139551105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>0.96256225714169874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>0.97086245236749069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.98849771364883521</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B25">
+    <sortCondition ref="B2:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
